--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PLASTICOS TECNICOS S.A.</t>
+          <t>Envases Plásticos Técnicos Spa</t>
         </is>
       </c>
       <c r="F20" t="n">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La Platina</t>
+          <t>DS19 Lote 2 - La Platina</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>55694</v>
+        <v>28000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/09/2021</t>
+          <t>30/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153282220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158544855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Optimización Sistema Tratamiento de Riles</t>
+          <t>La Platina</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Agrícola Don Pollo Ltda.</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>55694</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>23/09/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152975474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153282220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Con todos en comunidad I y II</t>
+          <t>Optimización Sistema Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Agrícola Don Pollo Ltda.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18000</v>
+        <v>50</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25/05/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151918066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152975474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Altos del Solar</t>
+          <t>Con todos en comunidad I y II</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11179</v>
+        <v>18000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>25/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150810609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151918066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>?Ampliación de bodega de vinos y mejora en manejo de residuos orgánicos?</t>
+          <t>Altos del Solar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Viña Almaviva S.A.</t>
+          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5500</v>
+        <v>11179</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14/07/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147379372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150810609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fabrica de Baldosas Budnik</t>
+          <t>?Ampliación de bodega de vinos y mejora en manejo de residuos orgánicos?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fábrica de Pavimentos y Revestimientos Budnik Hermanos S.A</t>
+          <t>Viña Almaviva S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>21500</v>
+        <v>5500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>02/04/2020</t>
+          <t>14/07/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145770514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147379372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Fabrica de Baldosas Budnik</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Fábrica de Pavimentos y Revestimientos Budnik Hermanos S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>02/04/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145770514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación de Bodega de Vinos y Mejora en Manejo de Residuos Orgánicos</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Viña Almaviva S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3473</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>05/09/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144084922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Proyecto de Viviendas Sociales Ampliación San Francisco Etapa II</t>
+          <t>Ampliación de Bodega de Vinos y Mejora en Manejo de Residuos Orgánicos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>Viña Almaviva S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>13522</v>
+        <v>3473</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>30/04/2019</t>
+          <t>05/09/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143020866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144084922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PROYECTO DE VIVIENDAS SOCIALES AMPLIACIÓN SAN FRANCISCO ETAPA II</t>
+          <t>Proyecto de Viviendas Sociales Ampliación San Francisco Etapa II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/10/2018</t>
+          <t>30/04/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141574353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143020866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Uso de Combustible Alternativo en Caldera de Biomasa</t>
+          <t>PROYECTO DE VIVIENDAS SOCIALES AMPLIACIÓN SAN FRANCISCO ETAPA II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ENERGÍAS INDUSTRIALES S.A.</t>
+          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>60</v>
+        <v>13522</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>24/10/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140840943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141574353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Antumapu</t>
+          <t>Uso de Combustible Alternativo en Caldera de Biomasa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>ENERGÍAS INDUSTRIALES S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>50296</v>
+        <v>60</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11/04/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138916672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140840943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestin Freinet</t>
+          <t>Conjunto Habitacional Antumapu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>15100</v>
+        <v>50296</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/03/2016</t>
+          <t>11/04/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131212115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138916672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestín Freinet</t>
+          <t>Conjunto Habitacional Celestin Freinet</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>07/09/2015</t>
+          <t>08/03/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130742320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131212115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestin Freinet</t>
+          <t>Conjunto Habitacional Celestín Freinet</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11/08/2015</t>
+          <t>07/09/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130650832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130742320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE GRASAS NO PELIGROSAS</t>
+          <t>Conjunto Habitacional Celestin Freinet</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS AMBIENTALES S.A.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>250</v>
+        <v>15100</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>11/08/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130650832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>SISTEMA DE TRATAMIENTO DE GRASAS NO PELIGROSAS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>SERVICIOS AMBIENTALES S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Grasas No Peligrosas</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1259,21 +1259,21 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aumento de potencia instalada para la industria Plásticos Técnicos S.A desde 800 a 2.000kVA</t>
+          <t>Sistema de Tratamiento de Grasas No Peligrosas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Envases Plásticos Técnicos Spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128544210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"Regularización Fábrica de Plásticos Técnicos S.A- Platesa"</t>
+          <t>Aumento de potencia instalada para la industria Plásticos Técnicos S.A desde 800 a 2.000kVA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PLASTICOS TECNICOS S.A.</t>
+          <t>Envases Plásticos Técnicos Spa</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>98</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128428889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128544210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>"Regularización Fábrica de Plásticos Técnicos S.A- Platesa"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>PLASTICOS TECNICOS S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/08/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128428889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta Transformadora de Productos de Acero</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ACENOR Aceros del Norte S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5522</v>
+        <v>250</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>07/01/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7739287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Planta Transformadora de Productos de Acero</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>ACENOR Aceros del Norte S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>15000</v>
+        <v>5522</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>07/01/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7739287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Depósito y Terminal de Vehículos Lo Blanco</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Buses Vule S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1125</v>
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>30/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROYECTO "REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA"</t>
+          <t>Depósito y Terminal de Vehículos Lo Blanco</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes de La Pintana</t>
+          <t>Buses Vule S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>22</v>
+        <v>1125</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/08/2011</t>
+          <t>30/08/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA</t>
+          <t>PROYECTO "REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Corporación Municipal de Deportes de La Pintana</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12/07/2011</t>
+          <t>08/08/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5795770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>12/07/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5795770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Generación de Vapor por Caldera a Biomasa en Reemplazo de Calderas a Combustibles Fósiles</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ENERGÍAS INDUSTRIALES S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 2x110 kV Arranque a Mariscal y Subestación Eléctrica Mariscal</t>
+          <t>Generación de Vapor por Caldera a Biomasa en Reemplazo de Calderas a Combustibles Fósiles</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>ENERGÍAS INDUSTRIALES S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>19</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>02/11/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5041533&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Polietileno</t>
+          <t>Línea de Transmisión 2x110 kV Arranque a Mariscal y Subestación Eléctrica Mariscal</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Plásticos El Olivar Ltda.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>02/11/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4950873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5041533&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Planta Recuperadora de Polietileno</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Plásticos El Olivar Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1750</v>
+        <v>289</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4950873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Polietileno - Plásticos El Olivar Ltda.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Juan Ramón Gaete Picand</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>289</v>
+        <v>1750</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4808718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Planta Recuperadora de Polietileno - Plásticos El Olivar Ltda.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Juan Ramón Gaete Picand</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>900</v>
+        <v>289</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>09/08/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4808718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Don Ambrosio III (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,20 +3026,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cooperativa Abierta de Viviendas Provicoop</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10200</v>
+        <v>350</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>31/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4288815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Conjunto Habitacional Don Ambrosio III (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Cooperativa Abierta de Viviendas Provicoop</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>800</v>
+        <v>10200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>31/12/2009</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4288815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MPRMS 100 - ACTUALIZACION EXTENSION URBANA Y RECONVERSION INDUSTRIAL (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MPRMS 100 - ACTUALIZACION EXTENSION URBANA Y RECONVERSION INDUSTRIAL (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>09/06/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Bodega de Almacenamiento Temporal de Baterías Vehiculares en Desuso para Reciclaje, Edwin Maldonado Rejas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Edwin Modesto Maldonado Rejas</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3769011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>29/04/2009</t>
+          <t>11/05/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3769011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RELOCALIZACIÓN DE LA PLANTA DE "RECUPERACION DE ENVASES (LAVADO DE ENVASES)" (e-seia)</t>
+          <t>Bodega de Almacenamiento Temporal de Baterías Vehiculares en Desuso para Reciclaje, Edwin Maldonado Rejas (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ulda Aquea Guerrero</t>
+          <t>Edwin Modesto Maldonado Rejas</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>17/02/2009</t>
+          <t>29/04/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3568064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>RELOCALIZACIÓN DE LA PLANTA DE "RECUPERACION DE ENVASES (LAVADO DE ENVASES)" (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,12 +3410,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ulda Aquea Guerrero</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>17/02/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3568064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,12 +3554,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Solventes, INQUILIMA LTDA. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,20 +4754,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Química Lima Ltda.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2372626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Recuperación de Solventes, INQUILIMA LTDA. (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Industrial Química Lima Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2372626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Fábrica de Espuma Flexible de Poliuretano Exp. Nº111/06 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,20 +5570,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>BENEDICTO ALFREDO CÁCERES ALLENDE</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>22/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1700132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma Flexible de Poliuretano (e-seia)</t>
+          <t>Fábrica de Espuma Flexible de Poliuretano Exp. Nº111/06 (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,21 +5627,21 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>22/09/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1700132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Fabrica de Espuma Flexible de Poliuretano (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>BENEDICTO ALFREDO CÁCERES ALLENDE</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sistema de neutralización y depuración de residuos industriales líquidos (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,20 +5714,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Metalúrgica lino henriquez s.a.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>17/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Sistema de neutralización y depuración de residuos industriales líquidos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Metalúrgica lino henriquez s.a.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>17/04/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MICHAEL CASELLI RAMIREZ</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PLANTA DE NEUTRALIZACION Y DEPURACION DE RESIDUOS INDUSTRIALES LIQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,20 +5858,20 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MANUEL HENRIQUEZ CANALES</t>
+          <t>MICHAEL CASELLI RAMIREZ</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>11/01/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1189548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>PLANTA DE NEUTRALIZACION Y DEPURACION DE RESIDUOS INDUSTRIALES LIQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>MANUEL HENRIQUEZ CANALES</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>11/01/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1189548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5967,17 +5967,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,20 +6002,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS LA PINTANA-SANTA ROSA TRONCAL 2 (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,20 +6098,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>6535</v>
+        <v>160</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS LA PINTANA-SANTA ROSA TRONCAL 2 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,20 +6146,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>200</v>
+        <v>6535</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,20 +6290,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6351,17 +6351,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GIMNASIO MUNICIPAL DE LA PINTANA (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1745</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499444&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Proyecto Modificación Sistema de Tratamiento Residuos Industriales Líquidos Agrícola Don Pollo Ltda. (e-seia)</t>
+          <t>GIMNASIO MUNICIPAL DE LA PINTANA (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Agrícola Don Pollo Ltda.</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>27/10/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499444&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Proyecto Modificación Sistema de Tratamiento Residuos Industriales Líquidos Agrícola Don Pollo Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,12 +6530,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Agrícola Don Pollo Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>27/10/2004</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MPRMS.82, MODIFICA TRAZADO E INCORPORA NUEVO TRAMO DIAGONAL-LO BLANCO, VIA T15S, COMUNA LA PINTANA (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,12 +6578,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>09/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=379098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Terminal de Buses (e-seia)</t>
+          <t>MPRMS.82, MODIFICA TRAZADO E INCORPORA NUEVO TRAMO DIAGONAL-LO BLANCO, VIA T15S, COMUNA LA PINTANA (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Empresa de Transporte Las Aracarias Ltda</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6639,17 +6639,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>13/04/2004</t>
+          <t>09/06/2004</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=379098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Terminal de Buses (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Transporte Las Aracarias Ltda</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6687,17 +6687,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>13/04/2004</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,20 +6722,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,20 +6770,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>08/11/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/11/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,30 +7010,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ampliación de Miniplanta de Compostaje Municipal en Dependencias de la Dirección de Gestión Ambiental</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,30 +7058,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>20/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Gabriela Figueroa</t>
+          <t>Ampliación de Miniplanta de Compostaje Municipal en Dependencias de la Dirección de Gestión Ambiental</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Constructora Bío Bío S.A.</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>580</v>
+        <v>40</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>16/07/2001</t>
+          <t>20/09/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Gabriela Figueroa</t>
+          <t>Proyecto Habitacional Gabriela Figueroa</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>7860</v>
+        <v>580</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,30 +7192,30 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Conjunto Habitacional Gabriela Figueroa</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Constructora Bío Bío S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1230</v>
+        <v>7860</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>16/07/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,30 +7240,30 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Terminal de Buses San Cristóbal La Granja</t>
+          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Asociación Gremial Dueños de Vehículos de Transporte Colectivo de Pasajeros San Cristóbal La Graja</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>04/05/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Colector de Aguas Lluvias Lo Martínez</t>
+          <t>Terminal de Buses San Cristóbal La Granja</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,15 +7351,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Asociación Gremial Dueños de Vehículos de Transporte Colectivo de Pasajeros San Cristóbal La Graja</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1670</v>
+        <v>200</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>19/04/2001</t>
+          <t>04/05/2001</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Colector e Interceptor de Aguas Lluvias Puente Alto</t>
+          <t>Colector de Aguas Lluvias Lo Martínez</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,11 +7403,11 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>41100</v>
+        <v>1670</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>04/04/2001</t>
+          <t>19/04/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Modificación Vial Acceso Sur a Santiago</t>
+          <t>Colector e Interceptor de Aguas Lluvias Puente Alto</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7451,11 +7451,11 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>41100</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>16/03/2001</t>
+          <t>04/04/2001</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,12 +7480,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Modificación Vial Acceso Sur a Santiago</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>16/03/2001</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7551,17 +7551,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Terminal de Buses La Pintana</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Gabriel Alamo Alamo</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>13/06/2000</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de la Comuna de La Granja aplicable a la Comuna de la Pintana en el área del Centro de Equipamiento Metropolitano de La Pintana y Barrio Cívico Comunal</t>
+          <t>Terminal de Buses La Pintana</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,15 +7639,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Gabriel Alamo Alamo</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>04/02/2000</t>
+          <t>13/06/2000</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago (PRMS) Sector La Platina - Comuna de La Pintana</t>
+          <t>Modificación al Plan Regulador de la Comuna de La Granja aplicable a la Comuna de la Pintana en el área del Centro de Equipamiento Metropolitano de La Pintana y Barrio Cívico Comunal</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>19/11/1999</t>
+          <t>04/02/2000</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional San Matías de La Pintana</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago (PRMS) Sector La Platina - Comuna de La Pintana</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Burgos Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>16/06/1999</t>
+          <t>19/11/1999</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Residencial José Donoso</t>
+          <t>Conjunto Habitacional San Matías de La Pintana</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Sociedad Inmobiliaria Burgos Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>19220</v>
+        <v>8000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>25/03/1999</t>
+          <t>16/06/1999</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Plan Seccional Zona Industrial La Pintana</t>
+          <t>Proyecto Residencial José Donoso</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>19220</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>10/02/1999</t>
+          <t>25/03/1999</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Seccional Subcentro de Equipamientos Metropolitano de la Comuna de La Pintana</t>
+          <t>Plan Seccional Zona Industrial La Pintana</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Gilberto Javier Correa Bravo</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>05/02/1999</t>
+          <t>10/02/1999</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Acceso Sur a Santiago</t>
+          <t>Seccional Subcentro de Equipamientos Metropolitano de la Comuna de La Pintana</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,25 +7927,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gilberto Javier Correa Bravo</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>355000</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>19/01/1999</t>
+          <t>05/02/1999</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Condominio de Micro y Pequeñas Empresas Santiago Sur</t>
+          <t>Acceso Sur a Santiago</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Inmobiliaria Quilanto Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>6390</v>
+        <v>355000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>12/01/1999</t>
+          <t>19/01/1999</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Loteo Acogido al DFL Nº2 de 1959 y sus modificaciones y a la Ley 19.537 de Copropiedad Inmobiliaria</t>
+          <t>Condominio de Micro y Pequeñas Empresas Santiago Sur</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Inmobiliaria Quilanto Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>9000</v>
+        <v>6390</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>26/06/1998</t>
+          <t>12/01/1999</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Loteo Parque Industrial Santa Rosa</t>
+          <t>Loteo Acogido al DFL Nº2 de 1959 y sus modificaciones y a la Ley 19.537 de Copropiedad Inmobiliaria</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Viviendas 2000 Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1230</v>
+        <v>9000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>26/06/1998</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Colector Interceptor de Aguas Servidas</t>
+          <t>Loteo Parque Industrial Santa Rosa</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Viviendas 2000 Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>8500</v>
+        <v>1230</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>25/08/1997</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,43 +8152,91 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
+          <t>Colector Interceptor de Aguas Servidas</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Aguas Andinas S.A.</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>25/08/1997</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1043&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>La Pintana</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F163" t="n">
+      <c r="F164" t="n">
         <v>300000</v>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J163" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>La Pintana</t>
         </is>

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/01/2023</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J164"/>
+  <dimension ref="A1:J165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS19 Lote 2 - La Platina</t>
+          <t>Planta de Separación de Residuos Inorgánicos para Reciclaje y/o Valorización y de Trasvasije de Residuos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Santa Rosa SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158544855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158656502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La Platina</t>
+          <t>DS19 Lote 2 - La Platina</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>55694</v>
+        <v>28000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/09/2021</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153282220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158544855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Optimización Sistema Tratamiento de Riles</t>
+          <t>La Platina</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Agrícola Don Pollo Ltda.</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>55694</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>23/09/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152975474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153282220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Con todos en comunidad I y II</t>
+          <t>Optimización Sistema Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Agrícola Don Pollo Ltda.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>18000</v>
+        <v>50</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25/05/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151918066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152975474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Altos del Solar</t>
+          <t>Con todos en comunidad I y II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>11179</v>
+        <v>18000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>25/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150810609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151918066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>?Ampliación de bodega de vinos y mejora en manejo de residuos orgánicos?</t>
+          <t>Altos del Solar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Viña Almaviva S.A.</t>
+          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5500</v>
+        <v>11179</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14/07/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147379372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150810609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fabrica de Baldosas Budnik</t>
+          <t>?Ampliación de bodega de vinos y mejora en manejo de residuos orgánicos?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fábrica de Pavimentos y Revestimientos Budnik Hermanos S.A</t>
+          <t>Viña Almaviva S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>21500</v>
+        <v>5500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02/04/2020</t>
+          <t>14/07/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145770514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147379372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Fabrica de Baldosas Budnik</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Fábrica de Pavimentos y Revestimientos Budnik Hermanos S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>02/04/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145770514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación de Bodega de Vinos y Mejora en Manejo de Residuos Orgánicos</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Viña Almaviva S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3473</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>05/09/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144084922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Proyecto de Viviendas Sociales Ampliación San Francisco Etapa II</t>
+          <t>Ampliación de Bodega de Vinos y Mejora en Manejo de Residuos Orgánicos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>Viña Almaviva S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13522</v>
+        <v>3473</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>30/04/2019</t>
+          <t>05/09/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143020866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144084922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PROYECTO DE VIVIENDAS SOCIALES AMPLIACIÓN SAN FRANCISCO ETAPA II</t>
+          <t>Proyecto de Viviendas Sociales Ampliación San Francisco Etapa II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/10/2018</t>
+          <t>30/04/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141574353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143020866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Uso de Combustible Alternativo en Caldera de Biomasa</t>
+          <t>PROYECTO DE VIVIENDAS SOCIALES AMPLIACIÓN SAN FRANCISCO ETAPA II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ENERGÍAS INDUSTRIALES S.A.</t>
+          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>13522</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>24/10/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140840943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141574353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Antumapu</t>
+          <t>Uso de Combustible Alternativo en Caldera de Biomasa</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>ENERGÍAS INDUSTRIALES S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>50296</v>
+        <v>60</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11/04/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138916672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140840943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestin Freinet</t>
+          <t>Conjunto Habitacional Antumapu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>15100</v>
+        <v>50296</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/03/2016</t>
+          <t>11/04/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131212115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138916672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestín Freinet</t>
+          <t>Conjunto Habitacional Celestin Freinet</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>07/09/2015</t>
+          <t>08/03/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130742320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131212115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestin Freinet</t>
+          <t>Conjunto Habitacional Celestín Freinet</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11/08/2015</t>
+          <t>07/09/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130650832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130742320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE GRASAS NO PELIGROSAS</t>
+          <t>Conjunto Habitacional Celestin Freinet</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS AMBIENTALES S.A.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>250</v>
+        <v>15100</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>11/08/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130650832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>SISTEMA DE TRATAMIENTO DE GRASAS NO PELIGROSAS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>SERVICIOS AMBIENTALES S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Grasas No Peligrosas</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1307,21 +1307,21 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aumento de potencia instalada para la industria Plásticos Técnicos S.A desde 800 a 2.000kVA</t>
+          <t>Sistema de Tratamiento de Grasas No Peligrosas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Envases Plásticos Técnicos Spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128544210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Regularización Fábrica de Plásticos Técnicos S.A- Platesa"</t>
+          <t>Aumento de potencia instalada para la industria Plásticos Técnicos S.A desde 800 a 2.000kVA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PLASTICOS TECNICOS S.A.</t>
+          <t>Envases Plásticos Técnicos Spa</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>98</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128428889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128544210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>"Regularización Fábrica de Plásticos Técnicos S.A- Platesa"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>PLASTICOS TECNICOS S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/08/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128428889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Planta Transformadora de Productos de Acero</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ACENOR Aceros del Norte S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5522</v>
+        <v>250</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>07/01/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7739287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Planta Transformadora de Productos de Acero</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>ACENOR Aceros del Norte S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>15000</v>
+        <v>5522</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>07/01/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7739287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Depósito y Terminal de Vehículos Lo Blanco</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Buses Vule S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1125</v>
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PROYECTO "REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA"</t>
+          <t>Depósito y Terminal de Vehículos Lo Blanco</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes de La Pintana</t>
+          <t>Buses Vule S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>22</v>
+        <v>1125</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/08/2011</t>
+          <t>30/08/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA</t>
+          <t>PROYECTO "REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Corporación Municipal de Deportes de La Pintana</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12/07/2011</t>
+          <t>08/08/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5795770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>12/07/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5795770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Generación de Vapor por Caldera a Biomasa en Reemplazo de Calderas a Combustibles Fósiles</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ENERGÍAS INDUSTRIALES S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 2x110 kV Arranque a Mariscal y Subestación Eléctrica Mariscal</t>
+          <t>Generación de Vapor por Caldera a Biomasa en Reemplazo de Calderas a Combustibles Fósiles</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>ENERGÍAS INDUSTRIALES S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>19</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>02/11/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5041533&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Polietileno</t>
+          <t>Línea de Transmisión 2x110 kV Arranque a Mariscal y Subestación Eléctrica Mariscal</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Plásticos El Olivar Ltda.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>02/11/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4950873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5041533&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Planta Recuperadora de Polietileno</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Plásticos El Olivar Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1750</v>
+        <v>289</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4950873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Polietileno - Plásticos El Olivar Ltda.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Juan Ramón Gaete Picand</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>289</v>
+        <v>1750</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4808718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Planta Recuperadora de Polietileno - Plásticos El Olivar Ltda.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Juan Ramón Gaete Picand</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>900</v>
+        <v>289</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>09/08/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4808718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Don Ambrosio III (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,20 +3074,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cooperativa Abierta de Viviendas Provicoop</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>10200</v>
+        <v>350</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>31/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4288815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Conjunto Habitacional Don Ambrosio III (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Cooperativa Abierta de Viviendas Provicoop</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>800</v>
+        <v>10200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>31/12/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4288815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MPRMS 100 - ACTUALIZACION EXTENSION URBANA Y RECONVERSION INDUSTRIAL (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MPRMS 100 - ACTUALIZACION EXTENSION URBANA Y RECONVERSION INDUSTRIAL (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>09/06/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Bodega de Almacenamiento Temporal de Baterías Vehiculares en Desuso para Reciclaje, Edwin Maldonado Rejas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Edwin Modesto Maldonado Rejas</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3769011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>29/04/2009</t>
+          <t>11/05/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3769011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>RELOCALIZACIÓN DE LA PLANTA DE "RECUPERACION DE ENVASES (LAVADO DE ENVASES)" (e-seia)</t>
+          <t>Bodega de Almacenamiento Temporal de Baterías Vehiculares en Desuso para Reciclaje, Edwin Maldonado Rejas (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ulda Aquea Guerrero</t>
+          <t>Edwin Modesto Maldonado Rejas</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>17/02/2009</t>
+          <t>29/04/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3568064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>RELOCALIZACIÓN DE LA PLANTA DE "RECUPERACION DE ENVASES (LAVADO DE ENVASES)" (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ulda Aquea Guerrero</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>17/02/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3568064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,12 +3554,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Solventes, INQUILIMA LTDA. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,20 +4802,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Química Lima Ltda.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2372626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Recuperación de Solventes, INQUILIMA LTDA. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Industrial Química Lima Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2372626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Fábrica de Espuma Flexible de Poliuretano Exp. Nº111/06 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,20 +5618,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>BENEDICTO ALFREDO CÁCERES ALLENDE</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>22/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1700132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma Flexible de Poliuretano (e-seia)</t>
+          <t>Fábrica de Espuma Flexible de Poliuretano Exp. Nº111/06 (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5675,21 +5675,21 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>22/09/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1700132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Fabrica de Espuma Flexible de Poliuretano (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>BENEDICTO ALFREDO CÁCERES ALLENDE</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sistema de neutralización y depuración de residuos industriales líquidos (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,20 +5762,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Metalúrgica lino henriquez s.a.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>17/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Sistema de neutralización y depuración de residuos industriales líquidos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Metalúrgica lino henriquez s.a.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>17/04/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MICHAEL CASELLI RAMIREZ</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PLANTA DE NEUTRALIZACION Y DEPURACION DE RESIDUOS INDUSTRIALES LIQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,20 +5906,20 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MANUEL HENRIQUEZ CANALES</t>
+          <t>MICHAEL CASELLI RAMIREZ</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>11/01/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1189548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>PLANTA DE NEUTRALIZACION Y DEPURACION DE RESIDUOS INDUSTRIALES LIQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>MANUEL HENRIQUEZ CANALES</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>11/01/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1189548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6015,17 +6015,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,20 +6050,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS LA PINTANA-SANTA ROSA TRONCAL 2 (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,20 +6146,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>6535</v>
+        <v>160</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS LA PINTANA-SANTA ROSA TRONCAL 2 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>200</v>
+        <v>6535</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,20 +6338,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6399,17 +6399,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>GIMNASIO MUNICIPAL DE LA PINTANA (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1745</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499444&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Proyecto Modificación Sistema de Tratamiento Residuos Industriales Líquidos Agrícola Don Pollo Ltda. (e-seia)</t>
+          <t>GIMNASIO MUNICIPAL DE LA PINTANA (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Agrícola Don Pollo Ltda.</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>27/10/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499444&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Proyecto Modificación Sistema de Tratamiento Residuos Industriales Líquidos Agrícola Don Pollo Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,12 +6578,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Agrícola Don Pollo Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>27/10/2004</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MPRMS.82, MODIFICA TRAZADO E INCORPORA NUEVO TRAMO DIAGONAL-LO BLANCO, VIA T15S, COMUNA LA PINTANA (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,12 +6626,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>09/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=379098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Terminal de Buses (e-seia)</t>
+          <t>MPRMS.82, MODIFICA TRAZADO E INCORPORA NUEVO TRAMO DIAGONAL-LO BLANCO, VIA T15S, COMUNA LA PINTANA (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Empresa de Transporte Las Aracarias Ltda</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6687,17 +6687,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>13/04/2004</t>
+          <t>09/06/2004</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=379098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Terminal de Buses (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Transporte Las Aracarias Ltda</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6735,17 +6735,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>13/04/2004</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,20 +6770,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,20 +6818,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>08/11/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/11/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,30 +7058,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación de Miniplanta de Compostaje Municipal en Dependencias de la Dirección de Gestión Ambiental</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,30 +7106,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>20/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Gabriela Figueroa</t>
+          <t>Ampliación de Miniplanta de Compostaje Municipal en Dependencias de la Dirección de Gestión Ambiental</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Constructora Bío Bío S.A.</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>580</v>
+        <v>40</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>16/07/2001</t>
+          <t>20/09/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Gabriela Figueroa</t>
+          <t>Proyecto Habitacional Gabriela Figueroa</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>7860</v>
+        <v>580</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,30 +7240,30 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Conjunto Habitacional Gabriela Figueroa</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Constructora Bío Bío S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1230</v>
+        <v>7860</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>16/07/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,30 +7288,30 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Terminal de Buses San Cristóbal La Granja</t>
+          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,15 +7351,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Asociación Gremial Dueños de Vehículos de Transporte Colectivo de Pasajeros San Cristóbal La Graja</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>04/05/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Colector de Aguas Lluvias Lo Martínez</t>
+          <t>Terminal de Buses San Cristóbal La Granja</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Asociación Gremial Dueños de Vehículos de Transporte Colectivo de Pasajeros San Cristóbal La Graja</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1670</v>
+        <v>200</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>19/04/2001</t>
+          <t>04/05/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Colector e Interceptor de Aguas Lluvias Puente Alto</t>
+          <t>Colector de Aguas Lluvias Lo Martínez</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,11 +7451,11 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>41100</v>
+        <v>1670</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>04/04/2001</t>
+          <t>19/04/2001</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,12 +7480,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Modificación Vial Acceso Sur a Santiago</t>
+          <t>Colector e Interceptor de Aguas Lluvias Puente Alto</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7499,11 +7499,11 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>41100</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>16/03/2001</t>
+          <t>04/04/2001</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Modificación Vial Acceso Sur a Santiago</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>16/03/2001</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7599,17 +7599,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Terminal de Buses La Pintana</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gabriel Alamo Alamo</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>13/06/2000</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de la Comuna de La Granja aplicable a la Comuna de la Pintana en el área del Centro de Equipamiento Metropolitano de La Pintana y Barrio Cívico Comunal</t>
+          <t>Terminal de Buses La Pintana</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,15 +7687,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Gabriel Alamo Alamo</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>04/02/2000</t>
+          <t>13/06/2000</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago (PRMS) Sector La Platina - Comuna de La Pintana</t>
+          <t>Modificación al Plan Regulador de la Comuna de La Granja aplicable a la Comuna de la Pintana en el área del Centro de Equipamiento Metropolitano de La Pintana y Barrio Cívico Comunal</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>19/11/1999</t>
+          <t>04/02/2000</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional San Matías de La Pintana</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago (PRMS) Sector La Platina - Comuna de La Pintana</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Burgos Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>16/06/1999</t>
+          <t>19/11/1999</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Residencial José Donoso</t>
+          <t>Conjunto Habitacional San Matías de La Pintana</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Sociedad Inmobiliaria Burgos Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>19220</v>
+        <v>8000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>25/03/1999</t>
+          <t>16/06/1999</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Plan Seccional Zona Industrial La Pintana</t>
+          <t>Proyecto Residencial José Donoso</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,25 +7879,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>19220</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>10/02/1999</t>
+          <t>25/03/1999</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Seccional Subcentro de Equipamientos Metropolitano de la Comuna de La Pintana</t>
+          <t>Plan Seccional Zona Industrial La Pintana</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Gilberto Javier Correa Bravo</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>05/02/1999</t>
+          <t>10/02/1999</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Acceso Sur a Santiago</t>
+          <t>Seccional Subcentro de Equipamientos Metropolitano de la Comuna de La Pintana</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gilberto Javier Correa Bravo</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>355000</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>19/01/1999</t>
+          <t>05/02/1999</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,12 +8008,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Condominio de Micro y Pequeñas Empresas Santiago Sur</t>
+          <t>Acceso Sur a Santiago</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Inmobiliaria Quilanto Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>6390</v>
+        <v>355000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>12/01/1999</t>
+          <t>19/01/1999</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Loteo Acogido al DFL Nº2 de 1959 y sus modificaciones y a la Ley 19.537 de Copropiedad Inmobiliaria</t>
+          <t>Condominio de Micro y Pequeñas Empresas Santiago Sur</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Inmobiliaria Quilanto Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>9000</v>
+        <v>6390</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>26/06/1998</t>
+          <t>12/01/1999</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Loteo Parque Industrial Santa Rosa</t>
+          <t>Loteo Acogido al DFL Nº2 de 1959 y sus modificaciones y a la Ley 19.537 de Copropiedad Inmobiliaria</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Viviendas 2000 Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1230</v>
+        <v>9000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>26/06/1998</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Colector Interceptor de Aguas Servidas</t>
+          <t>Loteo Parque Industrial Santa Rosa</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Viviendas 2000 Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>8500</v>
+        <v>1230</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>25/08/1997</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,43 +8200,91 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
+          <t>Colector Interceptor de Aguas Servidas</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Aguas Andinas S.A.</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>25/08/1997</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1043&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>La Pintana</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F164" t="n">
+      <c r="F165" t="n">
         <v>300000</v>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr">
+      <c r="J165" t="inlineStr">
         <is>
           <t>La Pintana</t>
         </is>

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/02/2023</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158656502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159059534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS19 Lote 2 - La Platina</t>
+          <t>Planta de Separación de Residuos Inorgánicos para Reciclaje y/o Valorización y de Trasvasije de Residuos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Santa Rosa SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158544855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158656502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La Platina</t>
+          <t>DS19 Lote 2 - La Platina</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>55694</v>
+        <v>28000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/09/2021</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153282220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158544855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Optimización Sistema Tratamiento de Riles</t>
+          <t>La Platina</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Agrícola Don Pollo Ltda.</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>55694</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>23/09/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152975474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153282220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Con todos en comunidad I y II</t>
+          <t>Optimización Sistema Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Agrícola Don Pollo Ltda.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>18000</v>
+        <v>50</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>25/05/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151918066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152975474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Altos del Solar</t>
+          <t>Con todos en comunidad I y II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>11179</v>
+        <v>18000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>25/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150810609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151918066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>?Ampliación de bodega de vinos y mejora en manejo de residuos orgánicos?</t>
+          <t>Altos del Solar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Viña Almaviva S.A.</t>
+          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5500</v>
+        <v>11179</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14/07/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147379372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150810609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fabrica de Baldosas Budnik</t>
+          <t>?Ampliación de bodega de vinos y mejora en manejo de residuos orgánicos?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fábrica de Pavimentos y Revestimientos Budnik Hermanos S.A</t>
+          <t>Viña Almaviva S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>21500</v>
+        <v>5500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>02/04/2020</t>
+          <t>14/07/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145770514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147379372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Fabrica de Baldosas Budnik</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Fábrica de Pavimentos y Revestimientos Budnik Hermanos S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>02/04/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145770514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación de Bodega de Vinos y Mejora en Manejo de Residuos Orgánicos</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Viña Almaviva S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3473</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>05/09/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144084922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Proyecto de Viviendas Sociales Ampliación San Francisco Etapa II</t>
+          <t>Ampliación de Bodega de Vinos y Mejora en Manejo de Residuos Orgánicos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>Viña Almaviva S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>13522</v>
+        <v>3473</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/04/2019</t>
+          <t>05/09/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143020866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144084922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROYECTO DE VIVIENDAS SOCIALES AMPLIACIÓN SAN FRANCISCO ETAPA II</t>
+          <t>Proyecto de Viviendas Sociales Ampliación San Francisco Etapa II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/10/2018</t>
+          <t>30/04/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141574353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143020866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Uso de Combustible Alternativo en Caldera de Biomasa</t>
+          <t>PROYECTO DE VIVIENDAS SOCIALES AMPLIACIÓN SAN FRANCISCO ETAPA II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ENERGÍAS INDUSTRIALES S.A.</t>
+          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>60</v>
+        <v>13522</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>24/10/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140840943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141574353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Antumapu</t>
+          <t>Uso de Combustible Alternativo en Caldera de Biomasa</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>ENERGÍAS INDUSTRIALES S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>50296</v>
+        <v>60</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11/04/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138916672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140840943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestin Freinet</t>
+          <t>Conjunto Habitacional Antumapu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>15100</v>
+        <v>50296</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08/03/2016</t>
+          <t>11/04/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131212115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138916672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestín Freinet</t>
+          <t>Conjunto Habitacional Celestin Freinet</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>07/09/2015</t>
+          <t>08/03/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130742320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131212115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestin Freinet</t>
+          <t>Conjunto Habitacional Celestín Freinet</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11/08/2015</t>
+          <t>07/09/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130650832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130742320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE GRASAS NO PELIGROSAS</t>
+          <t>Conjunto Habitacional Celestin Freinet</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERVICIOS AMBIENTALES S.A.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>250</v>
+        <v>15100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>11/08/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130650832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>SISTEMA DE TRATAMIENTO DE GRASAS NO PELIGROSAS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>SERVICIOS AMBIENTALES S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Grasas No Peligrosas</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1355,21 +1355,21 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aumento de potencia instalada para la industria Plásticos Técnicos S.A desde 800 a 2.000kVA</t>
+          <t>Sistema de Tratamiento de Grasas No Peligrosas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Envases Plásticos Técnicos Spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128544210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Regularización Fábrica de Plásticos Técnicos S.A- Platesa"</t>
+          <t>Aumento de potencia instalada para la industria Plásticos Técnicos S.A desde 800 a 2.000kVA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PLASTICOS TECNICOS S.A.</t>
+          <t>Envases Plásticos Técnicos Spa</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>98</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128428889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128544210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>"Regularización Fábrica de Plásticos Técnicos S.A- Platesa"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>PLASTICOS TECNICOS S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/08/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128428889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Planta Transformadora de Productos de Acero</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ACENOR Aceros del Norte S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5522</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>07/01/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7739287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Planta Transformadora de Productos de Acero</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>ACENOR Aceros del Norte S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>15000</v>
+        <v>5522</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>07/01/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7739287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Depósito y Terminal de Vehículos Lo Blanco</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Buses Vule S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1125</v>
+        <v>200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PROYECTO "REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA"</t>
+          <t>Depósito y Terminal de Vehículos Lo Blanco</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes de La Pintana</t>
+          <t>Buses Vule S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>22</v>
+        <v>1125</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/08/2011</t>
+          <t>30/08/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA</t>
+          <t>PROYECTO "REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Corporación Municipal de Deportes de La Pintana</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12/07/2011</t>
+          <t>08/08/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5795770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>12/07/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5795770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Generación de Vapor por Caldera a Biomasa en Reemplazo de Calderas a Combustibles Fósiles</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ENERGÍAS INDUSTRIALES S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 2x110 kV Arranque a Mariscal y Subestación Eléctrica Mariscal</t>
+          <t>Generación de Vapor por Caldera a Biomasa en Reemplazo de Calderas a Combustibles Fósiles</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>ENERGÍAS INDUSTRIALES S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>19</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>02/11/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5041533&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Polietileno</t>
+          <t>Línea de Transmisión 2x110 kV Arranque a Mariscal y Subestación Eléctrica Mariscal</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Plásticos El Olivar Ltda.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>02/11/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4950873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5041533&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Planta Recuperadora de Polietileno</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Plásticos El Olivar Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1750</v>
+        <v>289</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4950873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Polietileno - Plásticos El Olivar Ltda.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Juan Ramón Gaete Picand</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>289</v>
+        <v>1750</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4808718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Planta Recuperadora de Polietileno - Plásticos El Olivar Ltda.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Juan Ramón Gaete Picand</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>900</v>
+        <v>289</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>09/08/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4808718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Don Ambrosio III (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,20 +3122,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Cooperativa Abierta de Viviendas Provicoop</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10200</v>
+        <v>350</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>31/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4288815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Conjunto Habitacional Don Ambrosio III (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Cooperativa Abierta de Viviendas Provicoop</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>800</v>
+        <v>10200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>31/12/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4288815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MPRMS 100 - ACTUALIZACION EXTENSION URBANA Y RECONVERSION INDUSTRIAL (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MPRMS 100 - ACTUALIZACION EXTENSION URBANA Y RECONVERSION INDUSTRIAL (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>09/06/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Bodega de Almacenamiento Temporal de Baterías Vehiculares en Desuso para Reciclaje, Edwin Maldonado Rejas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Edwin Modesto Maldonado Rejas</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3769011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>29/04/2009</t>
+          <t>11/05/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3769011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RELOCALIZACIÓN DE LA PLANTA DE "RECUPERACION DE ENVASES (LAVADO DE ENVASES)" (e-seia)</t>
+          <t>Bodega de Almacenamiento Temporal de Baterías Vehiculares en Desuso para Reciclaje, Edwin Maldonado Rejas (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ulda Aquea Guerrero</t>
+          <t>Edwin Modesto Maldonado Rejas</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>17/02/2009</t>
+          <t>29/04/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3568064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>RELOCALIZACIÓN DE LA PLANTA DE "RECUPERACION DE ENVASES (LAVADO DE ENVASES)" (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ulda Aquea Guerrero</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>17/02/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3568064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,12 +3554,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,12 +3650,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Solventes, INQUILIMA LTDA. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,20 +4850,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Química Lima Ltda.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2372626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Recuperación de Solventes, INQUILIMA LTDA. (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Industrial Química Lima Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2372626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Fábrica de Espuma Flexible de Poliuretano Exp. Nº111/06 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,20 +5666,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>BENEDICTO ALFREDO CÁCERES ALLENDE</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>22/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1700132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma Flexible de Poliuretano (e-seia)</t>
+          <t>Fábrica de Espuma Flexible de Poliuretano Exp. Nº111/06 (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5723,21 +5723,21 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>22/09/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1700132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Fabrica de Espuma Flexible de Poliuretano (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>BENEDICTO ALFREDO CÁCERES ALLENDE</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sistema de neutralización y depuración de residuos industriales líquidos (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,20 +5810,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Metalúrgica lino henriquez s.a.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>17/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Sistema de neutralización y depuración de residuos industriales líquidos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Metalúrgica lino henriquez s.a.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>17/04/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MICHAEL CASELLI RAMIREZ</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PLANTA DE NEUTRALIZACION Y DEPURACION DE RESIDUOS INDUSTRIALES LIQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,20 +5954,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MANUEL HENRIQUEZ CANALES</t>
+          <t>MICHAEL CASELLI RAMIREZ</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>11/01/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1189548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>PLANTA DE NEUTRALIZACION Y DEPURACION DE RESIDUOS INDUSTRIALES LIQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>MANUEL HENRIQUEZ CANALES</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>11/01/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1189548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -6063,17 +6063,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,20 +6098,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS LA PINTANA-SANTA ROSA TRONCAL 2 (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>6535</v>
+        <v>160</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS LA PINTANA-SANTA ROSA TRONCAL 2 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,20 +6242,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>200</v>
+        <v>6535</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,20 +6386,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6447,17 +6447,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>GIMNASIO MUNICIPAL DE LA PINTANA (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1745</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499444&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Proyecto Modificación Sistema de Tratamiento Residuos Industriales Líquidos Agrícola Don Pollo Ltda. (e-seia)</t>
+          <t>GIMNASIO MUNICIPAL DE LA PINTANA (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Agrícola Don Pollo Ltda.</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>27/10/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499444&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Proyecto Modificación Sistema de Tratamiento Residuos Industriales Líquidos Agrícola Don Pollo Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,12 +6626,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Agrícola Don Pollo Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>27/10/2004</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MPRMS.82, MODIFICA TRAZADO E INCORPORA NUEVO TRAMO DIAGONAL-LO BLANCO, VIA T15S, COMUNA LA PINTANA (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,12 +6674,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>09/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=379098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Terminal de Buses (e-seia)</t>
+          <t>MPRMS.82, MODIFICA TRAZADO E INCORPORA NUEVO TRAMO DIAGONAL-LO BLANCO, VIA T15S, COMUNA LA PINTANA (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Empresa de Transporte Las Aracarias Ltda</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6735,17 +6735,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>13/04/2004</t>
+          <t>09/06/2004</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=379098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Terminal de Buses (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Transporte Las Aracarias Ltda</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6783,17 +6783,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>13/04/2004</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,20 +6818,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,20 +6866,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>08/11/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/11/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,30 +7106,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación de Miniplanta de Compostaje Municipal en Dependencias de la Dirección de Gestión Ambiental</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,30 +7154,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>20/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Gabriela Figueroa</t>
+          <t>Ampliación de Miniplanta de Compostaje Municipal en Dependencias de la Dirección de Gestión Ambiental</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Constructora Bío Bío S.A.</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>580</v>
+        <v>40</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>16/07/2001</t>
+          <t>20/09/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Gabriela Figueroa</t>
+          <t>Proyecto Habitacional Gabriela Figueroa</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>7860</v>
+        <v>580</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,30 +7288,30 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Conjunto Habitacional Gabriela Figueroa</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Constructora Bío Bío S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1230</v>
+        <v>7860</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>16/07/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,30 +7336,30 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Terminal de Buses San Cristóbal La Granja</t>
+          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Asociación Gremial Dueños de Vehículos de Transporte Colectivo de Pasajeros San Cristóbal La Graja</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>04/05/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Colector de Aguas Lluvias Lo Martínez</t>
+          <t>Terminal de Buses San Cristóbal La Granja</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Asociación Gremial Dueños de Vehículos de Transporte Colectivo de Pasajeros San Cristóbal La Graja</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1670</v>
+        <v>200</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>19/04/2001</t>
+          <t>04/05/2001</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Colector e Interceptor de Aguas Lluvias Puente Alto</t>
+          <t>Colector de Aguas Lluvias Lo Martínez</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7499,11 +7499,11 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>41100</v>
+        <v>1670</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>04/04/2001</t>
+          <t>19/04/2001</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación Vial Acceso Sur a Santiago</t>
+          <t>Colector e Interceptor de Aguas Lluvias Puente Alto</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7547,11 +7547,11 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>41100</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>16/03/2001</t>
+          <t>04/04/2001</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Modificación Vial Acceso Sur a Santiago</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>16/03/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7647,17 +7647,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Terminal de Buses La Pintana</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Gabriel Alamo Alamo</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>13/06/2000</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de la Comuna de La Granja aplicable a la Comuna de la Pintana en el área del Centro de Equipamiento Metropolitano de La Pintana y Barrio Cívico Comunal</t>
+          <t>Terminal de Buses La Pintana</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Gabriel Alamo Alamo</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>04/02/2000</t>
+          <t>13/06/2000</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago (PRMS) Sector La Platina - Comuna de La Pintana</t>
+          <t>Modificación al Plan Regulador de la Comuna de La Granja aplicable a la Comuna de la Pintana en el área del Centro de Equipamiento Metropolitano de La Pintana y Barrio Cívico Comunal</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>19/11/1999</t>
+          <t>04/02/2000</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional San Matías de La Pintana</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago (PRMS) Sector La Platina - Comuna de La Pintana</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Burgos Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>16/06/1999</t>
+          <t>19/11/1999</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto Residencial José Donoso</t>
+          <t>Conjunto Habitacional San Matías de La Pintana</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Sociedad Inmobiliaria Burgos Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>19220</v>
+        <v>8000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>25/03/1999</t>
+          <t>16/06/1999</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Plan Seccional Zona Industrial La Pintana</t>
+          <t>Proyecto Residencial José Donoso</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,25 +7927,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>19220</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>10/02/1999</t>
+          <t>25/03/1999</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Seccional Subcentro de Equipamientos Metropolitano de la Comuna de La Pintana</t>
+          <t>Plan Seccional Zona Industrial La Pintana</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Gilberto Javier Correa Bravo</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>05/02/1999</t>
+          <t>10/02/1999</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,12 +8008,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Acceso Sur a Santiago</t>
+          <t>Seccional Subcentro de Equipamientos Metropolitano de la Comuna de La Pintana</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gilberto Javier Correa Bravo</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>355000</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>19/01/1999</t>
+          <t>05/02/1999</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,12 +8056,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Condominio de Micro y Pequeñas Empresas Santiago Sur</t>
+          <t>Acceso Sur a Santiago</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Inmobiliaria Quilanto Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>6390</v>
+        <v>355000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>12/01/1999</t>
+          <t>19/01/1999</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Loteo Acogido al DFL Nº2 de 1959 y sus modificaciones y a la Ley 19.537 de Copropiedad Inmobiliaria</t>
+          <t>Condominio de Micro y Pequeñas Empresas Santiago Sur</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Inmobiliaria Quilanto Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>9000</v>
+        <v>6390</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>26/06/1998</t>
+          <t>12/01/1999</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Loteo Parque Industrial Santa Rosa</t>
+          <t>Loteo Acogido al DFL Nº2 de 1959 y sus modificaciones y a la Ley 19.537 de Copropiedad Inmobiliaria</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Viviendas 2000 Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1230</v>
+        <v>9000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>26/06/1998</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Colector Interceptor de Aguas Servidas</t>
+          <t>Loteo Parque Industrial Santa Rosa</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Viviendas 2000 Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>8500</v>
+        <v>1230</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>25/08/1997</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,43 +8248,91 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
+          <t>Colector Interceptor de Aguas Servidas</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Aguas Andinas S.A.</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>25/08/1997</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1043&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>La Pintana</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F165" t="n">
+      <c r="F166" t="n">
         <v>300000</v>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>La Pintana</t>
         </is>

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta de Separación de Residuos Inorgánicos para Reciclaje y/o Valorización y de Trasvasije de Residuos</t>
+          <t>La Platina Lotes 21, 23 y 24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Santa Rosa SpA</t>
+          <t>Inmobiliaria Concrecasa Dos Ltda.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>55549</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/04/2023</t>
+          <t>07/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159059534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159409889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/02/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158656502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159059534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS19 Lote 2 - La Platina</t>
+          <t>Planta de Separación de Residuos Inorgánicos para Reciclaje y/o Valorización y de Trasvasije de Residuos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Santa Rosa SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158544855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158656502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La Platina</t>
+          <t>DS19 Lote 2 - La Platina</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>55694</v>
+        <v>28000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/09/2021</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153282220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158544855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Optimización Sistema Tratamiento de Riles</t>
+          <t>La Platina</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Agrícola Don Pollo Ltda.</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>55694</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>23/09/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152975474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153282220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Con todos en comunidad I y II</t>
+          <t>Optimización Sistema Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Agrícola Don Pollo Ltda.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>18000</v>
+        <v>50</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>25/05/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151918066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152975474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Altos del Solar</t>
+          <t>Con todos en comunidad I y II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11179</v>
+        <v>18000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>25/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150810609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151918066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>?Ampliación de bodega de vinos y mejora en manejo de residuos orgánicos?</t>
+          <t>Altos del Solar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Viña Almaviva S.A.</t>
+          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5500</v>
+        <v>11179</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14/07/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147379372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150810609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fabrica de Baldosas Budnik</t>
+          <t>?Ampliación de bodega de vinos y mejora en manejo de residuos orgánicos?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fábrica de Pavimentos y Revestimientos Budnik Hermanos S.A</t>
+          <t>Viña Almaviva S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>21500</v>
+        <v>5500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>02/04/2020</t>
+          <t>14/07/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145770514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147379372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Fabrica de Baldosas Budnik</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Fábrica de Pavimentos y Revestimientos Budnik Hermanos S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>02/04/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145770514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación de Bodega de Vinos y Mejora en Manejo de Residuos Orgánicos</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Viña Almaviva S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3473</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>05/09/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144084922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Proyecto de Viviendas Sociales Ampliación San Francisco Etapa II</t>
+          <t>Ampliación de Bodega de Vinos y Mejora en Manejo de Residuos Orgánicos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>Viña Almaviva S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>13522</v>
+        <v>3473</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30/04/2019</t>
+          <t>05/09/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143020866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144084922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROYECTO DE VIVIENDAS SOCIALES AMPLIACIÓN SAN FRANCISCO ETAPA II</t>
+          <t>Proyecto de Viviendas Sociales Ampliación San Francisco Etapa II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/10/2018</t>
+          <t>30/04/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141574353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143020866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Uso de Combustible Alternativo en Caldera de Biomasa</t>
+          <t>PROYECTO DE VIVIENDAS SOCIALES AMPLIACIÓN SAN FRANCISCO ETAPA II</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ENERGÍAS INDUSTRIALES S.A.</t>
+          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>60</v>
+        <v>13522</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>24/10/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140840943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141574353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Antumapu</t>
+          <t>Uso de Combustible Alternativo en Caldera de Biomasa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>ENERGÍAS INDUSTRIALES S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50296</v>
+        <v>60</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11/04/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138916672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140840943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestin Freinet</t>
+          <t>Conjunto Habitacional Antumapu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>15100</v>
+        <v>50296</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/03/2016</t>
+          <t>11/04/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131212115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138916672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestín Freinet</t>
+          <t>Conjunto Habitacional Celestin Freinet</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>07/09/2015</t>
+          <t>08/03/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130742320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131212115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestin Freinet</t>
+          <t>Conjunto Habitacional Celestín Freinet</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11/08/2015</t>
+          <t>07/09/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130650832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130742320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE GRASAS NO PELIGROSAS</t>
+          <t>Conjunto Habitacional Celestin Freinet</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS AMBIENTALES S.A.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>250</v>
+        <v>15100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>11/08/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130650832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>SISTEMA DE TRATAMIENTO DE GRASAS NO PELIGROSAS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>SERVICIOS AMBIENTALES S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Grasas No Peligrosas</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1403,21 +1403,21 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aumento de potencia instalada para la industria Plásticos Técnicos S.A desde 800 a 2.000kVA</t>
+          <t>Sistema de Tratamiento de Grasas No Peligrosas</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Envases Plásticos Técnicos Spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128544210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Regularización Fábrica de Plásticos Técnicos S.A- Platesa"</t>
+          <t>Aumento de potencia instalada para la industria Plásticos Técnicos S.A desde 800 a 2.000kVA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PLASTICOS TECNICOS S.A.</t>
+          <t>Envases Plásticos Técnicos Spa</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>98</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128428889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128544210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>"Regularización Fábrica de Plásticos Técnicos S.A- Platesa"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>PLASTICOS TECNICOS S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/08/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128428889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta Transformadora de Productos de Acero</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ACENOR Aceros del Norte S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5522</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>07/01/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7739287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Planta Transformadora de Productos de Acero</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>ACENOR Aceros del Norte S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>15000</v>
+        <v>5522</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>07/01/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7739287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Depósito y Terminal de Vehículos Lo Blanco</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Buses Vule S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1125</v>
+        <v>200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PROYECTO "REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA"</t>
+          <t>Depósito y Terminal de Vehículos Lo Blanco</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes de La Pintana</t>
+          <t>Buses Vule S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>22</v>
+        <v>1125</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/08/2011</t>
+          <t>30/08/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA</t>
+          <t>PROYECTO "REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Corporación Municipal de Deportes de La Pintana</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12/07/2011</t>
+          <t>08/08/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5795770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>12/07/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5795770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Generación de Vapor por Caldera a Biomasa en Reemplazo de Calderas a Combustibles Fósiles</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ENERGÍAS INDUSTRIALES S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 2x110 kV Arranque a Mariscal y Subestación Eléctrica Mariscal</t>
+          <t>Generación de Vapor por Caldera a Biomasa en Reemplazo de Calderas a Combustibles Fósiles</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>ENERGÍAS INDUSTRIALES S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>19</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>02/11/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5041533&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Polietileno</t>
+          <t>Línea de Transmisión 2x110 kV Arranque a Mariscal y Subestación Eléctrica Mariscal</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Plásticos El Olivar Ltda.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>02/11/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4950873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5041533&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Planta Recuperadora de Polietileno</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Plásticos El Olivar Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1750</v>
+        <v>289</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4950873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Polietileno - Plásticos El Olivar Ltda.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Juan Ramón Gaete Picand</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>289</v>
+        <v>1750</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4808718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Planta Recuperadora de Polietileno - Plásticos El Olivar Ltda.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Juan Ramón Gaete Picand</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>900</v>
+        <v>289</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>09/08/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4808718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Don Ambrosio III (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,20 +3170,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Cooperativa Abierta de Viviendas Provicoop</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>10200</v>
+        <v>350</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>31/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4288815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Conjunto Habitacional Don Ambrosio III (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Cooperativa Abierta de Viviendas Provicoop</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>800</v>
+        <v>10200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>31/12/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4288815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MPRMS 100 - ACTUALIZACION EXTENSION URBANA Y RECONVERSION INDUSTRIAL (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MPRMS 100 - ACTUALIZACION EXTENSION URBANA Y RECONVERSION INDUSTRIAL (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>09/06/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Bodega de Almacenamiento Temporal de Baterías Vehiculares en Desuso para Reciclaje, Edwin Maldonado Rejas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Edwin Modesto Maldonado Rejas</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3769011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>29/04/2009</t>
+          <t>11/05/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3769011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RELOCALIZACIÓN DE LA PLANTA DE "RECUPERACION DE ENVASES (LAVADO DE ENVASES)" (e-seia)</t>
+          <t>Bodega de Almacenamiento Temporal de Baterías Vehiculares en Desuso para Reciclaje, Edwin Maldonado Rejas (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ulda Aquea Guerrero</t>
+          <t>Edwin Modesto Maldonado Rejas</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>17/02/2009</t>
+          <t>29/04/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3568064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>RELOCALIZACIÓN DE LA PLANTA DE "RECUPERACION DE ENVASES (LAVADO DE ENVASES)" (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,12 +3554,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ulda Aquea Guerrero</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>17/02/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3568064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,12 +3650,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,12 +3698,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,16 +4130,16 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Solventes, INQUILIMA LTDA. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,20 +4898,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Química Lima Ltda.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2372626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Recuperación de Solventes, INQUILIMA LTDA. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Industrial Química Lima Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2372626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Fábrica de Espuma Flexible de Poliuretano Exp. Nº111/06 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,20 +5714,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>BENEDICTO ALFREDO CÁCERES ALLENDE</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>22/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1700132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma Flexible de Poliuretano (e-seia)</t>
+          <t>Fábrica de Espuma Flexible de Poliuretano Exp. Nº111/06 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5771,21 +5771,21 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>22/09/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1700132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Fabrica de Espuma Flexible de Poliuretano (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>BENEDICTO ALFREDO CÁCERES ALLENDE</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Sistema de neutralización y depuración de residuos industriales líquidos (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,20 +5858,20 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Metalúrgica lino henriquez s.a.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>17/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Sistema de neutralización y depuración de residuos industriales líquidos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Metalúrgica lino henriquez s.a.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>17/04/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MICHAEL CASELLI RAMIREZ</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PLANTA DE NEUTRALIZACION Y DEPURACION DE RESIDUOS INDUSTRIALES LIQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,20 +6002,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MANUEL HENRIQUEZ CANALES</t>
+          <t>MICHAEL CASELLI RAMIREZ</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>11/01/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1189548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>PLANTA DE NEUTRALIZACION Y DEPURACION DE RESIDUOS INDUSTRIALES LIQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>MANUEL HENRIQUEZ CANALES</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>11/01/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1189548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -6111,17 +6111,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,20 +6146,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS LA PINTANA-SANTA ROSA TRONCAL 2 (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,20 +6242,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>6535</v>
+        <v>160</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS LA PINTANA-SANTA ROSA TRONCAL 2 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,20 +6290,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>200</v>
+        <v>6535</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,20 +6434,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6495,17 +6495,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GIMNASIO MUNICIPAL DE LA PINTANA (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1745</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499444&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Proyecto Modificación Sistema de Tratamiento Residuos Industriales Líquidos Agrícola Don Pollo Ltda. (e-seia)</t>
+          <t>GIMNASIO MUNICIPAL DE LA PINTANA (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Agrícola Don Pollo Ltda.</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>27/10/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499444&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Proyecto Modificación Sistema de Tratamiento Residuos Industriales Líquidos Agrícola Don Pollo Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,12 +6674,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Agrícola Don Pollo Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>27/10/2004</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MPRMS.82, MODIFICA TRAZADO E INCORPORA NUEVO TRAMO DIAGONAL-LO BLANCO, VIA T15S, COMUNA LA PINTANA (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,12 +6722,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>09/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=379098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Terminal de Buses (e-seia)</t>
+          <t>MPRMS.82, MODIFICA TRAZADO E INCORPORA NUEVO TRAMO DIAGONAL-LO BLANCO, VIA T15S, COMUNA LA PINTANA (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Empresa de Transporte Las Aracarias Ltda</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6783,17 +6783,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>13/04/2004</t>
+          <t>09/06/2004</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=379098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Terminal de Buses (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Transporte Las Aracarias Ltda</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6831,17 +6831,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>13/04/2004</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,20 +6866,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,20 +6914,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>08/11/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/11/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,30 +7154,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación de Miniplanta de Compostaje Municipal en Dependencias de la Dirección de Gestión Ambiental</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,30 +7202,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>20/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Gabriela Figueroa</t>
+          <t>Ampliación de Miniplanta de Compostaje Municipal en Dependencias de la Dirección de Gestión Ambiental</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Constructora Bío Bío S.A.</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>580</v>
+        <v>40</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>16/07/2001</t>
+          <t>20/09/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Gabriela Figueroa</t>
+          <t>Proyecto Habitacional Gabriela Figueroa</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>7860</v>
+        <v>580</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,30 +7336,30 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Conjunto Habitacional Gabriela Figueroa</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Constructora Bío Bío S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1230</v>
+        <v>7860</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>16/07/2001</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,30 +7384,30 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Terminal de Buses San Cristóbal La Granja</t>
+          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Asociación Gremial Dueños de Vehículos de Transporte Colectivo de Pasajeros San Cristóbal La Graja</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>04/05/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Colector de Aguas Lluvias Lo Martínez</t>
+          <t>Terminal de Buses San Cristóbal La Granja</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,15 +7495,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Asociación Gremial Dueños de Vehículos de Transporte Colectivo de Pasajeros San Cristóbal La Graja</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1670</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>19/04/2001</t>
+          <t>04/05/2001</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Colector e Interceptor de Aguas Lluvias Puente Alto</t>
+          <t>Colector de Aguas Lluvias Lo Martínez</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,11 +7547,11 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>41100</v>
+        <v>1670</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>04/04/2001</t>
+          <t>19/04/2001</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación Vial Acceso Sur a Santiago</t>
+          <t>Colector e Interceptor de Aguas Lluvias Puente Alto</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7595,11 +7595,11 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>41100</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>16/03/2001</t>
+          <t>04/04/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Modificación Vial Acceso Sur a Santiago</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>16/03/2001</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7695,17 +7695,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Terminal de Buses La Pintana</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gabriel Alamo Alamo</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>13/06/2000</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de la Comuna de La Granja aplicable a la Comuna de la Pintana en el área del Centro de Equipamiento Metropolitano de La Pintana y Barrio Cívico Comunal</t>
+          <t>Terminal de Buses La Pintana</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Gabriel Alamo Alamo</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>04/02/2000</t>
+          <t>13/06/2000</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago (PRMS) Sector La Platina - Comuna de La Pintana</t>
+          <t>Modificación al Plan Regulador de la Comuna de La Granja aplicable a la Comuna de la Pintana en el área del Centro de Equipamiento Metropolitano de La Pintana y Barrio Cívico Comunal</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>19/11/1999</t>
+          <t>04/02/2000</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional San Matías de La Pintana</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago (PRMS) Sector La Platina - Comuna de La Pintana</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Burgos Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>16/06/1999</t>
+          <t>19/11/1999</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto Residencial José Donoso</t>
+          <t>Conjunto Habitacional San Matías de La Pintana</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Sociedad Inmobiliaria Burgos Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>19220</v>
+        <v>8000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>25/03/1999</t>
+          <t>16/06/1999</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Plan Seccional Zona Industrial La Pintana</t>
+          <t>Proyecto Residencial José Donoso</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>19220</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>10/02/1999</t>
+          <t>25/03/1999</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Seccional Subcentro de Equipamientos Metropolitano de la Comuna de La Pintana</t>
+          <t>Plan Seccional Zona Industrial La Pintana</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Gilberto Javier Correa Bravo</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>05/02/1999</t>
+          <t>10/02/1999</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,12 +8056,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Acceso Sur a Santiago</t>
+          <t>Seccional Subcentro de Equipamientos Metropolitano de la Comuna de La Pintana</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gilberto Javier Correa Bravo</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>355000</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>19/01/1999</t>
+          <t>05/02/1999</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,12 +8104,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Condominio de Micro y Pequeñas Empresas Santiago Sur</t>
+          <t>Acceso Sur a Santiago</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Inmobiliaria Quilanto Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>6390</v>
+        <v>355000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>12/01/1999</t>
+          <t>19/01/1999</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Loteo Acogido al DFL Nº2 de 1959 y sus modificaciones y a la Ley 19.537 de Copropiedad Inmobiliaria</t>
+          <t>Condominio de Micro y Pequeñas Empresas Santiago Sur</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Inmobiliaria Quilanto Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>9000</v>
+        <v>6390</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>26/06/1998</t>
+          <t>12/01/1999</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Loteo Parque Industrial Santa Rosa</t>
+          <t>Loteo Acogido al DFL Nº2 de 1959 y sus modificaciones y a la Ley 19.537 de Copropiedad Inmobiliaria</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Viviendas 2000 Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1230</v>
+        <v>9000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>26/06/1998</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Colector Interceptor de Aguas Servidas</t>
+          <t>Loteo Parque Industrial Santa Rosa</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,15 +8263,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Viviendas 2000 Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>8500</v>
+        <v>1230</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>25/08/1997</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,43 +8296,91 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
+          <t>Colector Interceptor de Aguas Servidas</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Aguas Andinas S.A.</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>25/08/1997</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1043&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>La Pintana</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F166" t="n">
+      <c r="F167" t="n">
         <v>300000</v>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>La Pintana</t>
         </is>

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>13/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La Platina Lotes 21, 23 y 24</t>
+          <t>LÍNEA 9 METRO DE SANTIAGO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria Concrecasa Dos Ltda.</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>55549</v>
+        <v>1.9461</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/06/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159409889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160253047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta de Separación de Residuos Inorgánicos para Reciclaje y/o Valorización y de Trasvasije de Residuos</t>
+          <t>La Platina Lotes 21, 23 y 24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Santa Rosa SpA</t>
+          <t>Inmobiliaria Concrecasa Dos Ltda.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5000</v>
+        <v>55549</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/04/2023</t>
+          <t>13/06/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159059534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159409889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/02/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158656502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159059534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS19 Lote 2 - La Platina</t>
+          <t>Planta de Separación de Residuos Inorgánicos para Reciclaje y/o Valorización y de Trasvasije de Residuos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Santa Rosa SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158544855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158656502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La Platina</t>
+          <t>DS19 Lote 2 - La Platina</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>55694</v>
+        <v>28000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/09/2021</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153282220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158544855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Optimización Sistema Tratamiento de Riles</t>
+          <t>La Platina</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Agrícola Don Pollo Ltda.</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>55694</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>23/09/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152975474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153282220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Con todos en comunidad I y II</t>
+          <t>Optimización Sistema Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Agrícola Don Pollo Ltda.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>18000</v>
+        <v>50</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>25/05/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151918066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152975474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Altos del Solar</t>
+          <t>Con todos en comunidad I y II</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>11179</v>
+        <v>18000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>25/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150810609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151918066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>?Ampliación de bodega de vinos y mejora en manejo de residuos orgánicos?</t>
+          <t>Altos del Solar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Viña Almaviva S.A.</t>
+          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5500</v>
+        <v>11179</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14/07/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147379372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150810609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fabrica de Baldosas Budnik</t>
+          <t>?Ampliación de bodega de vinos y mejora en manejo de residuos orgánicos?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fábrica de Pavimentos y Revestimientos Budnik Hermanos S.A</t>
+          <t>Viña Almaviva S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>21500</v>
+        <v>5500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>02/04/2020</t>
+          <t>14/07/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145770514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147379372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Fabrica de Baldosas Budnik</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Fábrica de Pavimentos y Revestimientos Budnik Hermanos S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>02/04/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145770514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación de Bodega de Vinos y Mejora en Manejo de Residuos Orgánicos</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Viña Almaviva S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3473</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>05/09/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144084922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto de Viviendas Sociales Ampliación San Francisco Etapa II</t>
+          <t>Ampliación de Bodega de Vinos y Mejora en Manejo de Residuos Orgánicos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>Viña Almaviva S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>13522</v>
+        <v>3473</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30/04/2019</t>
+          <t>05/09/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143020866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144084922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROYECTO DE VIVIENDAS SOCIALES AMPLIACIÓN SAN FRANCISCO ETAPA II</t>
+          <t>Proyecto de Viviendas Sociales Ampliación San Francisco Etapa II</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/10/2018</t>
+          <t>30/04/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141574353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143020866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Uso de Combustible Alternativo en Caldera de Biomasa</t>
+          <t>PROYECTO DE VIVIENDAS SOCIALES AMPLIACIÓN SAN FRANCISCO ETAPA II</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ENERGÍAS INDUSTRIALES S.A.</t>
+          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>60</v>
+        <v>13522</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>24/10/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140840943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141574353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Antumapu</t>
+          <t>Uso de Combustible Alternativo en Caldera de Biomasa</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>ENERGÍAS INDUSTRIALES S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>50296</v>
+        <v>60</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11/04/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138916672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140840943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestin Freinet</t>
+          <t>Conjunto Habitacional Antumapu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>15100</v>
+        <v>50296</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/03/2016</t>
+          <t>11/04/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131212115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138916672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestín Freinet</t>
+          <t>Conjunto Habitacional Celestin Freinet</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>07/09/2015</t>
+          <t>08/03/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130742320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131212115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Celestin Freinet</t>
+          <t>Conjunto Habitacional Celestín Freinet</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11/08/2015</t>
+          <t>07/09/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130650832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130742320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE GRASAS NO PELIGROSAS</t>
+          <t>Conjunto Habitacional Celestin Freinet</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SERVICIOS AMBIENTALES S.A.</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>250</v>
+        <v>15100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>11/08/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130650832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>SISTEMA DE TRATAMIENTO DE GRASAS NO PELIGROSAS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>SERVICIOS AMBIENTALES S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Grasas No Peligrosas</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1451,21 +1451,21 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Aumento de potencia instalada para la industria Plásticos Técnicos S.A desde 800 a 2.000kVA</t>
+          <t>Sistema de Tratamiento de Grasas No Peligrosas</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Envases Plásticos Técnicos Spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128544210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Regularización Fábrica de Plásticos Técnicos S.A- Platesa"</t>
+          <t>Aumento de potencia instalada para la industria Plásticos Técnicos S.A desde 800 a 2.000kVA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PLASTICOS TECNICOS S.A.</t>
+          <t>Envases Plásticos Técnicos Spa</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>98</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128428889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128544210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>"Regularización Fábrica de Plásticos Técnicos S.A- Platesa"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>PLASTICOS TECNICOS S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/08/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128428889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta Transformadora de Productos de Acero</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ACENOR Aceros del Norte S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5522</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>07/01/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7739287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Planta Transformadora de Productos de Acero</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>ACENOR Aceros del Norte S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>15000</v>
+        <v>5522</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>07/01/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7739287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Depósito y Terminal de Vehículos Lo Blanco</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Buses Vule S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1125</v>
+        <v>200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>30/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PROYECTO "REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA"</t>
+          <t>Depósito y Terminal de Vehículos Lo Blanco</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes de La Pintana</t>
+          <t>Buses Vule S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>22</v>
+        <v>1125</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/08/2011</t>
+          <t>30/08/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5975974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA</t>
+          <t>PROYECTO "REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Corporación Municipal de Deportes de La Pintana</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12/07/2011</t>
+          <t>08/08/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5795770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>REGULARIZACIÓN DE INSTALACIONES Y OBRAS DE MEJORAMIENTO ESTADIO MUNICIPAL DE LA PINTANA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>12/07/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5795770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Generación de Vapor por Caldera a Biomasa en Reemplazo de Calderas a Combustibles Fósiles</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ENERGÍAS INDUSTRIALES S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 2x110 kV Arranque a Mariscal y Subestación Eléctrica Mariscal</t>
+          <t>Generación de Vapor por Caldera a Biomasa en Reemplazo de Calderas a Combustibles Fósiles</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>ENERGÍAS INDUSTRIALES S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>19</v>
+        <v>5000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>02/11/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5041533&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5140334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Polietileno</t>
+          <t>Línea de Transmisión 2x110 kV Arranque a Mariscal y Subestación Eléctrica Mariscal</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Plásticos El Olivar Ltda.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>02/11/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4950873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5041533&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Planta Recuperadora de Polietileno</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Plásticos El Olivar Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1750</v>
+        <v>289</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4950873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Polietileno - Plásticos El Olivar Ltda.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,20 +2834,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Juan Ramón Gaete Picand</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>289</v>
+        <v>1750</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4808718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Planta Recuperadora de Polietileno - Plásticos El Olivar Ltda.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Juan Ramón Gaete Picand</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>900</v>
+        <v>289</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>09/08/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4808718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Don Ambrosio III (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cooperativa Abierta de Viviendas Provicoop</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>10200</v>
+        <v>350</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>31/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4288815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Conjunto Habitacional Don Ambrosio III (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Cooperativa Abierta de Viviendas Provicoop</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>800</v>
+        <v>10200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>31/12/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4288815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MPRMS 100 - ACTUALIZACION EXTENSION URBANA Y RECONVERSION INDUSTRIAL (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MPRMS 100 - ACTUALIZACION EXTENSION URBANA Y RECONVERSION INDUSTRIAL (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>09/06/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Bodega de Almacenamiento Temporal de Baterías Vehiculares en Desuso para Reciclaje, Edwin Maldonado Rejas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Edwin Modesto Maldonado Rejas</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3769011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>29/04/2009</t>
+          <t>11/05/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3769011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RELOCALIZACIÓN DE LA PLANTA DE "RECUPERACION DE ENVASES (LAVADO DE ENVASES)" (e-seia)</t>
+          <t>Bodega de Almacenamiento Temporal de Baterías Vehiculares en Desuso para Reciclaje, Edwin Maldonado Rejas (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ulda Aquea Guerrero</t>
+          <t>Edwin Modesto Maldonado Rejas</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>17/02/2009</t>
+          <t>29/04/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3568064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>RELOCALIZACIÓN DE LA PLANTA DE "RECUPERACION DE ENVASES (LAVADO DE ENVASES)" (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ulda Aquea Guerrero</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>17/02/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3568064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,12 +3650,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,12 +3698,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,12 +3746,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,16 +4178,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Solventes, INQUILIMA LTDA. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,20 +4946,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Química Lima Ltda.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2372626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Recuperación de Solventes, INQUILIMA LTDA. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Industrial Química Lima Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2372626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Fábrica de Espuma Flexible de Poliuretano Exp. Nº111/06 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,20 +5762,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>BENEDICTO ALFREDO CÁCERES ALLENDE</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>22/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1700132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma Flexible de Poliuretano (e-seia)</t>
+          <t>Fábrica de Espuma Flexible de Poliuretano Exp. Nº111/06 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5819,21 +5819,21 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>22/09/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1700132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Fabrica de Espuma Flexible de Poliuretano (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>BENEDICTO ALFREDO CÁCERES ALLENDE</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sistema de neutralización y depuración de residuos industriales líquidos (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,20 +5906,20 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Metalúrgica lino henriquez s.a.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>17/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Sistema de neutralización y depuración de residuos industriales líquidos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Metalúrgica lino henriquez s.a.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>17/04/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MICHAEL CASELLI RAMIREZ</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PLANTA DE NEUTRALIZACION Y DEPURACION DE RESIDUOS INDUSTRIALES LIQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,20 +6050,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MANUEL HENRIQUEZ CANALES</t>
+          <t>MICHAEL CASELLI RAMIREZ</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>11/01/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1189548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>PLANTA DE NEUTRALIZACION Y DEPURACION DE RESIDUOS INDUSTRIALES LIQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>MANUEL HENRIQUEZ CANALES</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>11/01/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1189548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -6159,17 +6159,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS LA PINTANA-SANTA ROSA TRONCAL 2 (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,20 +6290,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>6535</v>
+        <v>160</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS LA PINTANA-SANTA ROSA TRONCAL 2 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,20 +6338,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>200</v>
+        <v>6535</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,20 +6482,20 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6543,17 +6543,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>GIMNASIO MUNICIPAL DE LA PINTANA (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1745</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499444&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proyecto Modificación Sistema de Tratamiento Residuos Industriales Líquidos Agrícola Don Pollo Ltda. (e-seia)</t>
+          <t>GIMNASIO MUNICIPAL DE LA PINTANA (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Agrícola Don Pollo Ltda.</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>27/10/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499444&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Proyecto Modificación Sistema de Tratamiento Residuos Industriales Líquidos Agrícola Don Pollo Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,12 +6722,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Agrícola Don Pollo Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>27/10/2004</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MPRMS.82, MODIFICA TRAZADO E INCORPORA NUEVO TRAMO DIAGONAL-LO BLANCO, VIA T15S, COMUNA LA PINTANA (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,12 +6770,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>09/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=379098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Terminal de Buses (e-seia)</t>
+          <t>MPRMS.82, MODIFICA TRAZADO E INCORPORA NUEVO TRAMO DIAGONAL-LO BLANCO, VIA T15S, COMUNA LA PINTANA (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Empresa de Transporte Las Aracarias Ltda</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6831,17 +6831,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>13/04/2004</t>
+          <t>09/06/2004</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=379098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Terminal de Buses (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Transporte Las Aracarias Ltda</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6879,17 +6879,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>13/04/2004</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,20 +6914,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,20 +6962,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>08/11/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/11/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,30 +7202,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ampliación de Miniplanta de Compostaje Municipal en Dependencias de la Dirección de Gestión Ambiental</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,30 +7250,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>20/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Gabriela Figueroa</t>
+          <t>Ampliación de Miniplanta de Compostaje Municipal en Dependencias de la Dirección de Gestión Ambiental</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Constructora Bío Bío S.A.</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>580</v>
+        <v>40</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>16/07/2001</t>
+          <t>20/09/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Gabriela Figueroa</t>
+          <t>Proyecto Habitacional Gabriela Figueroa</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>7860</v>
+        <v>580</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,30 +7384,30 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Conjunto Habitacional Gabriela Figueroa</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Constructora Bío Bío S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1230</v>
+        <v>7860</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>16/07/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,30 +7432,30 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Terminal de Buses San Cristóbal La Granja</t>
+          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,15 +7495,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Asociación Gremial Dueños de Vehículos de Transporte Colectivo de Pasajeros San Cristóbal La Graja</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>04/05/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Colector de Aguas Lluvias Lo Martínez</t>
+          <t>Terminal de Buses San Cristóbal La Granja</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,15 +7543,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Asociación Gremial Dueños de Vehículos de Transporte Colectivo de Pasajeros San Cristóbal La Graja</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1670</v>
+        <v>200</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>19/04/2001</t>
+          <t>04/05/2001</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Colector e Interceptor de Aguas Lluvias Puente Alto</t>
+          <t>Colector de Aguas Lluvias Lo Martínez</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7595,11 +7595,11 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>41100</v>
+        <v>1670</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>04/04/2001</t>
+          <t>19/04/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación Vial Acceso Sur a Santiago</t>
+          <t>Colector e Interceptor de Aguas Lluvias Puente Alto</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7643,11 +7643,11 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>41100</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>16/03/2001</t>
+          <t>04/04/2001</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Modificación Vial Acceso Sur a Santiago</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>16/03/2001</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7743,17 +7743,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Terminal de Buses La Pintana</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gabriel Alamo Alamo</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>13/06/2000</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de la Comuna de La Granja aplicable a la Comuna de la Pintana en el área del Centro de Equipamiento Metropolitano de La Pintana y Barrio Cívico Comunal</t>
+          <t>Terminal de Buses La Pintana</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>Gabriel Alamo Alamo</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>04/02/2000</t>
+          <t>13/06/2000</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago (PRMS) Sector La Platina - Comuna de La Pintana</t>
+          <t>Modificación al Plan Regulador de la Comuna de La Granja aplicable a la Comuna de la Pintana en el área del Centro de Equipamiento Metropolitano de La Pintana y Barrio Cívico Comunal</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>19/11/1999</t>
+          <t>04/02/2000</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional San Matías de La Pintana</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago (PRMS) Sector La Platina - Comuna de La Pintana</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Burgos Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>16/06/1999</t>
+          <t>19/11/1999</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto Residencial José Donoso</t>
+          <t>Conjunto Habitacional San Matías de La Pintana</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Sociedad Inmobiliaria Burgos Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>19220</v>
+        <v>8000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>25/03/1999</t>
+          <t>16/06/1999</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Plan Seccional Zona Industrial La Pintana</t>
+          <t>Proyecto Residencial José Donoso</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Pintana</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>19220</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>10/02/1999</t>
+          <t>25/03/1999</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Seccional Subcentro de Equipamientos Metropolitano de la Comuna de La Pintana</t>
+          <t>Plan Seccional Zona Industrial La Pintana</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Gilberto Javier Correa Bravo</t>
+          <t>Ilustre Municipalidad de La Pintana</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>05/02/1999</t>
+          <t>10/02/1999</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,12 +8104,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Acceso Sur a Santiago</t>
+          <t>Seccional Subcentro de Equipamientos Metropolitano de la Comuna de La Pintana</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gilberto Javier Correa Bravo</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>355000</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>19/01/1999</t>
+          <t>05/02/1999</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Condominio de Micro y Pequeñas Empresas Santiago Sur</t>
+          <t>Acceso Sur a Santiago</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Inmobiliaria Quilanto Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>6390</v>
+        <v>355000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>12/01/1999</t>
+          <t>19/01/1999</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Loteo Acogido al DFL Nº2 de 1959 y sus modificaciones y a la Ley 19.537 de Copropiedad Inmobiliaria</t>
+          <t>Condominio de Micro y Pequeñas Empresas Santiago Sur</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Inmobiliaria Quilanto Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>9000</v>
+        <v>6390</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>26/06/1998</t>
+          <t>12/01/1999</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Loteo Parque Industrial Santa Rosa</t>
+          <t>Loteo Acogido al DFL Nº2 de 1959 y sus modificaciones y a la Ley 19.537 de Copropiedad Inmobiliaria</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,15 +8263,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Viviendas 2000 Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1230</v>
+        <v>9000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>26/06/1998</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Colector Interceptor de Aguas Servidas</t>
+          <t>Loteo Parque Industrial Santa Rosa</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,15 +8311,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Viviendas 2000 Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>8500</v>
+        <v>1230</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>25/08/1997</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,43 +8344,91 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
+          <t>Colector Interceptor de Aguas Servidas</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Aguas Andinas S.A.</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>25/08/1997</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1043&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>La Pintana</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F167" t="n">
+      <c r="F168" t="n">
         <v>300000</v>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>La Pintana</t>
         </is>

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Pintana.xlsx
+++ b/data/La Pintana.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
